--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_16.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_16.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.99981671414846</v>
+        <v>0.9330967167283237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.829313401634887</v>
+        <v>0.7445715313660559</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8264531982898079</v>
+        <v>0.681106705065017</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998828092244755</v>
+        <v>0.9306922296018947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007629322501872375</v>
+        <v>0.2784867027241136</v>
       </c>
       <c r="G2" t="n">
-        <v>1.141382069207029</v>
+        <v>1.708051345895135</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6207668468956204</v>
+        <v>1.140662825486796</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002932212003555705</v>
+        <v>0.2641172105798237</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04111500205683779</v>
+        <v>1.315332136006406</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02762122825269068</v>
+        <v>0.5277183933918863</v>
       </c>
       <c r="L2" t="n">
-        <v>1.011730294498562</v>
+        <v>0.9088976568215472</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02805623498657211</v>
+        <v>0.5360294305629506</v>
       </c>
       <c r="N2" t="n">
-        <v>144.3566826492203</v>
+        <v>36.55676993361626</v>
       </c>
       <c r="O2" t="n">
-        <v>285.6918551924367</v>
+        <v>73.52135352184207</v>
       </c>
     </row>
     <row r="3">
@@ -561,389 +561,389 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998340260123834</v>
+        <v>0.9331694812926065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.828951256964867</v>
+        <v>0.7443453267261484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8256402243921788</v>
+        <v>0.6807401734386229</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998592584768158</v>
+        <v>0.9304676528926229</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006908711544341153</v>
+        <v>0.2781838182827034</v>
       </c>
       <c r="G3" t="n">
-        <v>1.143803732282975</v>
+        <v>1.709563977363773</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6236748073885046</v>
+        <v>1.141973887861683</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003521471564910134</v>
+        <v>0.264973024778915</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04026284836845331</v>
+        <v>1.315532687269059</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02628442798377235</v>
+        <v>0.5274313398753466</v>
       </c>
       <c r="L3" t="n">
-        <v>1.010622335207465</v>
+        <v>0.9089967404835493</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02669838144972834</v>
+        <v>0.5357378562404737</v>
       </c>
       <c r="N3" t="n">
-        <v>144.5551144281032</v>
+        <v>36.55894633390957</v>
       </c>
       <c r="O3" t="n">
-        <v>285.8902869713196</v>
+        <v>73.5235299221354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_8</t>
+          <t>model_1_16_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998622666727354</v>
+        <v>0.9338071656504617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8289245913257721</v>
+        <v>0.7438864424574615</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8244860974296045</v>
+        <v>0.6796568429614238</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998026353437504</v>
+        <v>0.9321719094209532</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000573318651782795</v>
+        <v>0.2755294401189783</v>
       </c>
       <c r="G4" t="n">
-        <v>1.143982045534387</v>
+        <v>1.712632538581451</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6278030526135063</v>
+        <v>1.145848898163514</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004938230091427332</v>
+        <v>0.2584784646770749</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04683209499791272</v>
+        <v>1.312048774216537</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02394407341666816</v>
+        <v>0.5249089826998375</v>
       </c>
       <c r="L4" t="n">
-        <v>1.008814932944937</v>
+        <v>0.9098650766304159</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02432116863768852</v>
+        <v>0.5331757744608825</v>
       </c>
       <c r="N4" t="n">
-        <v>144.9281377690167</v>
+        <v>36.57812159082484</v>
       </c>
       <c r="O4" t="n">
-        <v>286.2633103122331</v>
+        <v>73.54270517905066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_5</t>
+          <t>model_1_16_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998583833087454</v>
+        <v>0.9345533041425315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8289244607986607</v>
+        <v>0.7437011905106495</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8245191480157691</v>
+        <v>0.6793010592751427</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998151108039225</v>
+        <v>0.935682201766692</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000589483258064425</v>
+        <v>0.2724236187262037</v>
       </c>
       <c r="G5" t="n">
-        <v>1.143982918369782</v>
+        <v>1.713871319202789</v>
       </c>
       <c r="H5" t="n">
-        <v>0.627684832583179</v>
+        <v>1.147121515779818</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004626083560244499</v>
+        <v>0.2451014851933774</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04753069003491769</v>
+        <v>1.30196479488663</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02427927630849867</v>
+        <v>0.5219421603264136</v>
       </c>
       <c r="L5" t="n">
-        <v>1.009063468240292</v>
+        <v>0.9108810950025961</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02466165063998541</v>
+        <v>0.5301622276008114</v>
       </c>
       <c r="N5" t="n">
-        <v>144.8725284772403</v>
+        <v>36.6007940048444</v>
       </c>
       <c r="O5" t="n">
-        <v>286.2077010204566</v>
+        <v>73.56537759307022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_3</t>
+          <t>model_1_16_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998461708864959</v>
+        <v>0.9334359795331761</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8289197983122161</v>
+        <v>0.7435170652384826</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8247603453250624</v>
+        <v>0.6789484866319961</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998084019286704</v>
+        <v>0.9290284546263043</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006403177917112021</v>
+        <v>0.2770745122416732</v>
       </c>
       <c r="G6" t="n">
-        <v>1.144014096438106</v>
+        <v>1.715102565745588</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6268220837932605</v>
+        <v>1.148382647681017</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004793945275096988</v>
+        <v>0.2704575040716115</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05051643257042623</v>
+        <v>1.316903529803266</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02530450141202553</v>
+        <v>0.5263786776092599</v>
       </c>
       <c r="L6" t="n">
-        <v>1.009845063264265</v>
+        <v>0.9093596317047505</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0257030220140437</v>
+        <v>0.5346686155959722</v>
       </c>
       <c r="N6" t="n">
-        <v>144.7070919106035</v>
+        <v>36.56693762341143</v>
       </c>
       <c r="O6" t="n">
-        <v>286.0422644538199</v>
+        <v>73.53152121163725</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_6</t>
+          <t>model_1_16_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998605420710628</v>
+        <v>0.9336243175649029</v>
       </c>
       <c r="C7" t="n">
-        <v>0.82890458639536</v>
+        <v>0.7426127264543265</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8244257192592634</v>
+        <v>0.6772309825158377</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998151330182967</v>
+        <v>0.9274906827360125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0005804973522861251</v>
+        <v>0.2762905501565818</v>
       </c>
       <c r="G7" t="n">
-        <v>1.144115818596167</v>
+        <v>1.721149883359338</v>
       </c>
       <c r="H7" t="n">
-        <v>0.628019021827889</v>
+        <v>1.154526060317905</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004625527737873494</v>
+        <v>0.2763176265346342</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04700727376750721</v>
+        <v>1.318224926236634</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02409351265976228</v>
+        <v>0.5256334751103489</v>
       </c>
       <c r="L7" t="n">
-        <v>1.008925307451982</v>
+        <v>0.9096160920032721</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02447296139947693</v>
+        <v>0.5339116769026326</v>
       </c>
       <c r="N7" t="n">
-        <v>144.9032506358573</v>
+        <v>36.57260449805067</v>
       </c>
       <c r="O7" t="n">
-        <v>286.2384231790738</v>
+        <v>73.53718808627649</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_7</t>
+          <t>model_1_16_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999861673909861</v>
+        <v>0.9337188604744062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8288919929169896</v>
+        <v>0.7424352473076654</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8244459688519569</v>
+        <v>0.6768973000461971</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998074817550461</v>
+        <v>0.9275296700809726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005757860430720326</v>
+        <v>0.2758970127717779</v>
       </c>
       <c r="G8" t="n">
-        <v>1.144200031244018</v>
+        <v>1.722336687230277</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6279465902089636</v>
+        <v>1.155719623163788</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004816968794947941</v>
+        <v>0.2761690540334609</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0466542108729418</v>
+        <v>1.31796062233716</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02399554214999179</v>
+        <v>0.5252589958980026</v>
       </c>
       <c r="L8" t="n">
-        <v>1.008852869768894</v>
+        <v>0.9097448312842978</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02437344795211214</v>
+        <v>0.5335313000170339</v>
       </c>
       <c r="N8" t="n">
-        <v>144.9195488385482</v>
+        <v>36.57545525006215</v>
       </c>
       <c r="O8" t="n">
-        <v>286.2547213817646</v>
+        <v>73.54003883828797</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_4</t>
+          <t>model_1_16_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998474693391503</v>
+        <v>0.9335345118937021</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8288809260551162</v>
+        <v>0.742258863842577</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8246173839372857</v>
+        <v>0.6765670133862758</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998053911748001</v>
+        <v>0.9260567999298794</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006349129478725311</v>
+        <v>0.2766643686604821</v>
       </c>
       <c r="G9" t="n">
-        <v>1.144274035400323</v>
+        <v>1.723516164273494</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6273334483879602</v>
+        <v>1.156901039395206</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00048692768752065</v>
+        <v>0.2817818497361438</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05021650751298129</v>
+        <v>1.319841832338169</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0251974789983548</v>
+        <v>0.52598894347741</v>
       </c>
       <c r="L9" t="n">
-        <v>1.009761962294384</v>
+        <v>0.909493803429722</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02559431410434081</v>
+        <v>0.5342727435411371</v>
       </c>
       <c r="N9" t="n">
-        <v>144.7240453168676</v>
+        <v>36.56990034588109</v>
       </c>
       <c r="O9" t="n">
-        <v>286.059217860084</v>
+        <v>73.53448393410692</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_2</t>
+          <t>model_1_16_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998397287823229</v>
+        <v>0.9343373250116837</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8287766974674391</v>
+        <v>0.7399695954875447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8250669189745909</v>
+        <v>0.6725940338738663</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998289664563768</v>
+        <v>0.9252887281504487</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0006671332223151717</v>
+        <v>0.2733226376243165</v>
       </c>
       <c r="G10" t="n">
-        <v>1.144971012446049</v>
+        <v>1.738824512304706</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6257254876250584</v>
+        <v>1.171112156744507</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004279403454564033</v>
+        <v>0.2847088083548251</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04442333655387497</v>
+        <v>1.317735894388733</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02582892220583684</v>
+        <v>0.5228026756093703</v>
       </c>
       <c r="L10" t="n">
-        <v>1.010257357931337</v>
+        <v>0.9105869957605905</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02623570191112907</v>
+        <v>0.531036295139275</v>
       </c>
       <c r="N10" t="n">
-        <v>144.6250415967736</v>
+        <v>36.59420471760063</v>
       </c>
       <c r="O10" t="n">
-        <v>285.96021413999</v>
+        <v>73.55878830582645</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998655200960758</v>
+        <v>0.9343640983623733</v>
       </c>
       <c r="C11" t="n">
-        <v>0.828652043490713</v>
+        <v>0.739930913234073</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8233405531515915</v>
+        <v>0.6723136766606717</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997685781147438</v>
+        <v>0.9250999387590501</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0005597761902720573</v>
+        <v>0.2732111928373067</v>
       </c>
       <c r="G11" t="n">
-        <v>1.145804574162395</v>
+        <v>1.739083180711787</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6319005980734854</v>
+        <v>1.172114978240059</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005790370673770306</v>
+        <v>0.2854282446771435</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05002044325955331</v>
+        <v>1.317726921407634</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02365958981622584</v>
+        <v>0.5226960807556402</v>
       </c>
       <c r="L11" t="n">
-        <v>1.008606713851151</v>
+        <v>0.9106234530891892</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0240322047049185</v>
+        <v>0.5309280215231543</v>
       </c>
       <c r="N11" t="n">
-        <v>144.975947028698</v>
+        <v>36.59502036546975</v>
       </c>
       <c r="O11" t="n">
-        <v>286.3111195719144</v>
+        <v>73.55960395369557</v>
       </c>
     </row>
   </sheetData>
